--- a/data/QA Monthly Infographic - Hyperlinks_peter_soguero.xlsx
+++ b/data/QA Monthly Infographic - Hyperlinks_peter_soguero.xlsx
@@ -633,7 +633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -711,12 +711,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cafe 45 Glover</t>
+          <t>Avenues - The World School</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>52282</t>
+          <t>25523</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -730,7 +730,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>T-82280</t>
+          <t>T-82307</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -739,16 +739,16 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
+          <t>1005--Non-food contact surfaces are properly designed and constructed, and in good repair.</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>All Drains have been cleaned and sanitized. They were done on 11/04/24 and 11/05/24</t>
+          <t>Proposal for new gasket has been approved and we are waiting for parts &amp;amp; installation.</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -759,12 +759,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cafe 45 Glover</t>
+          <t>Avenues - The World School</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>52282</t>
+          <t>25523</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -778,7 +778,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>T-82279</t>
+          <t>T-82303</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -787,16 +787,16 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
+          <t>1303--Plumbing is maintained in good repair.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Will be monitoring every day to make sure the temperature gets taken. Executive Chef is aware and is following protocol on a daily basis</t>
+          <t>Plumber has fixed this leak.</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -807,12 +807,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cafe 45 Glover</t>
+          <t>Avenues - The World School</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>52282</t>
+          <t>25523</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -826,7 +826,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>T-82276</t>
+          <t>T-82308</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -835,16 +835,16 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1004--Food contact surfaces are properly designed and constructed, and in good repair.</t>
+          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Went over which cutting boards needed replacement. Made a list to order from MTucker / Discarded the ones that were not usable</t>
+          <t>New containers have been purchased to ensure proper holding temperature.</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -855,12 +855,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cafe 45 Glover</t>
+          <t>Avenues - The World School</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>52282</t>
+          <t>25523</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -874,7 +874,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>T-82277</t>
+          <t>T-82305</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -883,16 +883,16 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
+          <t>806--All refrigerators, freezers, and mechanical hot boxes have accurate thermometers that are easily visible.</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>had discussion with Deli prep person and stressed the importance of recording temperatures on the log on a daily basis</t>
+          <t>Thermometer has been placed in unit.</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -951,12 +951,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cafe 45 Glover</t>
+          <t>Avenues - The World School</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>52282</t>
+          <t>25523</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -970,7 +970,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>T-82278</t>
+          <t>T-82306</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -979,16 +979,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+          <t>504--There is no potential for cross contamination between raw animal foods and ready to eat food. Proper hierarchy is followed.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Had meeting with all employees and Executive Chef on 11/04/24 and stressed the importance of taking temperatures on a daily basis</t>
+          <t>Staff has been retrained on proper storage.</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1014,11 +1014,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>T-81753</t>
+          <t>T-82298</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -1027,16 +1027,16 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>806--All refrigerators, freezers, and mechanical hot boxes have accurate thermometers that are easily visible.</t>
+          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Thermometer was placed in the hot box.</t>
+          <t>This was addressed with responsible team member and retraining of entire team has occurred.</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1062,11 +1062,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>T-81755</t>
+          <t>T-82304</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
@@ -1075,16 +1075,16 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>504--There is no potential for cross contamination between raw animal foods and ready to eat food. Proper hierarchy is followed.</t>
+          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Addressed specifically with team member who left item in hot box. Also addressed in pre-service with entire team.</t>
+          <t>This was addressed with responsible team member.</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1110,11 +1110,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>T-81754</t>
+          <t>T-82299</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -1123,16 +1123,16 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>506--Food is protected from contamination from customers during service and display/consumer self-service.</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Addressed specifically with team member who left item in hot box. Also addressed in pre-service with entire team.</t>
+          <t>New cleaning schedule every week</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1143,12 +1143,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Milbank</t>
+          <t>Cafe 45 Glover</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>46270</t>
+          <t>52282</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -1158,11 +1158,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>T-81645</t>
+          <t>T-82278</t>
         </is>
       </c>
       <c r="H11" t="inlineStr"/>
@@ -1171,16 +1171,16 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Nothin in comments. Cleaning has been addressed with team</t>
+          <t>Had meeting with all employees and Executive Chef on 11/04/24 and stressed the importance of taking temperatures on a daily basis</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1191,12 +1191,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Milbank</t>
+          <t>Cafe 45 Glover</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>46270</t>
+          <t>52282</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -1206,11 +1206,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>T-81643</t>
+          <t>T-82280</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -1219,16 +1219,16 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
+          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Hot holding unit serviced by Aircom-now properly holding temp on hot foods</t>
+          <t>All Drains have been cleaned and sanitized. They were done on 11/04/24 and 11/05/24</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1239,12 +1239,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Milbank</t>
+          <t>Avenues - The World School</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>46270</t>
+          <t>25523</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -1254,11 +1254,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>T-81642</t>
+          <t>T-82302</t>
         </is>
       </c>
       <c r="H13" t="inlineStr"/>
@@ -1267,833 +1267,1361 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Ice machine has been cleaned and we are now moving to a weekly cleaning schedule.</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cafe 45 Glover</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>52282</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>31</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>T-82279</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>FLIK 5B - HACCP Thermometer in place: Walk in coolers or Primary Storage Coolers are monitored AM and PM daily</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Will be monitoring every day to make sure the temperature gets taken. Executive Chef is aware and is following protocol on a daily basis</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cafe 45 Glover</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>52282</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>31</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>T-82277</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>FLIK 3A - Paper Logs: Service/line temperatures</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>had discussion with Deli prep person and stressed the importance of recording temperatures on the log on a daily basis</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Avenues - The World School</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>25523</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>31</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>T-82300</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>601--Sanitization: Proper temperatures met for high temperature sanitizing, and proper concentration for chemical sanitizing. Wiping cloth solution at proper concentration.</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Dish machine Booster is being replaced. Proposal has been approved. Not currently using the machine as we are waiting for it to be fixed.</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cafe 45 Glover</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>52282</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>31</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>T-82276</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1004--Food contact surfaces are properly designed and constructed, and in good repair.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Went over which cutting boards needed replacement. Made a list to order from MTucker / Discarded the ones that were not usable</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Avenues - The World School</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>25523</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="n">
+        <v>31</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>T-82301</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>809--TCS foods are held cold at 41F or below - Mechanical Equipment/Facilities Related.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>The low boy fridge is currently marked as "out of order" and no food will be stored there. Waiting to hear back on proposal to fix.</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Avenues - The World School</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>25523</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>16</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>T-81753</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>806--All refrigerators, freezers, and mechanical hot boxes have accurate thermometers that are easily visible.</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Thermometer was placed in the hot box.</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Avenues - The World School</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>25523</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>16</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>T-81755</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>504--There is no potential for cross contamination between raw animal foods and ready to eat food. Proper hierarchy is followed.</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Addressed specifically with team member who left item in hot box. Also addressed in pre-service with entire team.</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Avenues - The World School</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>25523</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>16</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>T-81754</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>506--Food is protected from contamination from customers during service and display/consumer self-service.</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Addressed specifically with team member who left item in hot box. Also addressed in pre-service with entire team.</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Milbank</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>46270</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>14</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>T-81645</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Nothin in comments. Cleaning has been addressed with team</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Milbank</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>46270</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>14</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>T-81647</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Two stations were combined into one and logs were not changed in Plumsense. Logs for omelet station and entree station were being done by an employee no longer on site, this has been addressed.</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Milbank</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>46270</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>14</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>T-81642</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
           <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>opening in celiling-building facilities contacted
 water- fans relocated to trouble area, staff educated on proper cleanup of these areas, especially on Fridays</t>
         </is>
       </c>
-      <c r="L13" t="n">
+      <c r="L24" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Milbank</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>46270</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="D25" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
         <v>14</v>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>T-81647</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Two stations were combined into one and logs were not changed in Plumsense. Logs for omelet station and entree station were being done by an employee no longer on site, this has been addressed.</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>T-81643</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Hot holding unit serviced by Aircom-now properly holding temp on hot foods</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Milbank</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>46270</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="D26" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10</v>
+      </c>
+      <c r="F26" t="n">
         <v>14</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>T-81640</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>cleaning discussed with team during preservice</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Milbank</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>46270</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>14</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>T-81644</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>FLIK 7 - Paper Logs: Warewashing</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Staff education on importance of proper log-keeping</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Milbank</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>46270</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10</v>
+      </c>
+      <c r="F28" t="n">
+        <v>14</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>T-81646</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Food had been placed under to cool to a proper temperature and was not intended for service. Cooling foods will be moved to walkin fridge moving forward</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Milbank</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>46270</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E29" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" t="n">
+        <v>14</v>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>T-81641</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>1303--Plumbing is maintained in good repair.</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>drain pipe reattached properly</t>
         </is>
       </c>
-      <c r="L15" t="n">
+      <c r="L29" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Milbank</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>46270</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="D30" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E30" t="n">
+        <v>10</v>
+      </c>
+      <c r="F30" t="n">
         <v>14</v>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>T-81640</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>cleaning discussed with team during preservice</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>T-81639</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>food will be moved to walkin coolers to come back down to temp instead of doing this in the lowboy at the station</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Milbank</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>46270</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10</v>
-      </c>
-      <c r="F17" t="n">
-        <v>14</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>T-81646</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Food had been placed under to cool to a proper temperature and was not intended for service. Cooling foods will be moved to walkin fridge moving forward</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Cravath Swaine &amp; Moore LLP</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E31" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Milbank</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>46270</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F18" t="n">
-        <v>14</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>T-81644</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>FLIK 7 - Paper Logs: Warewashing</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>Staff education on importance of proper log-keeping</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>T-81505</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>FLIK 6 - Paper Logs: Cooling TCS foods are monitored/recorded</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Chef Yang and Sous Chef Ivan will re-train staff and plan daily temperature log checks at the end of day.</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Cravath Swaine &amp; Moore LLP</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Milbank</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>46270</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10</v>
-      </c>
-      <c r="F19" t="n">
-        <v>14</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>T-81639</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>802--TCS food is cooled following proper methods which facilitate rapid cooling. All TCS food is properly chilled to 41F or less prior to placing into service or display.</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>food will be moved to walkin coolers to come back down to temp instead of doing this in the lowboy at the station</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>T-81508</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>We spoke with the client regarding the facility issue. They will contact and follow up with the Cravath facility team.</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Cravath Swaine &amp; Moore LLP</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E33" t="n">
+        <v>10</v>
+      </c>
+      <c r="F33" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>T-81509</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>We spoke with the client regarding the equipment failure. They will contact and follow up with the Cravath facility team.</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Cravath Swaine &amp; Moore LLP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>1060</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E20" t="n">
-        <v>10</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="D34" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E34" t="n">
+        <v>10</v>
+      </c>
+      <c r="F34" t="n">
         <v>8</v>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>T-81504</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>1001--Clean utensils and equipment are properly stored, air-dried, and handled. Clean tableware is properly handled and protected.</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Re-train responsible staff. EHA talked about this with the team during pre-service on day of audit. Spoke with Chef David Diaz and Sous Chef Ivan discussed the correct procedure at pre-service</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>T-81506</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>1308--Hot and cold water is available, at proper temperatures where required, and is under adequate pressure.</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Client was made aware about the issue. They will contact the Cravath facilities team for repair. The team has placed a sign by the hand wash sink to state it is "Out of Order</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Cravath Swaine &amp; Moore LLP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>1060</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E21" t="n">
-        <v>10</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="D35" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E35" t="n">
+        <v>10</v>
+      </c>
+      <c r="F35" t="n">
         <v>8</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>T-81502</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>A: As advised by client, they will follow up with the Cravath Facility Team about the equipment not maintaining temperature of hot foods. 
 B: RE-train staff/those responsible for the prep regarding the food left at ambient temperature. Discussed at pre-service.</t>
         </is>
       </c>
-      <c r="L21" t="n">
+      <c r="L35" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Cravath Swaine &amp; Moore LLP</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>1060</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E22" t="n">
-        <v>10</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="D36" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F36" t="n">
         <v>8</v>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>T-81506</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>T-81504</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>1001--Clean utensils and equipment are properly stored, air-dried, and handled. Clean tableware is properly handled and protected.</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Re-train responsible staff. EHA talked about this with the team during pre-service on day of audit. Spoke with Chef David Diaz and Sous Chef Ivan discussed the correct procedure at pre-service</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Cravath Swaine &amp; Moore LLP</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10</v>
+      </c>
+      <c r="F37" t="n">
+        <v>8</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>T-81500</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Re-train staff responsible for those stations - Plan daily temperature logs checks at the end of day. Chef Yang, Sous Chef Ivan, Dave Williams, and David Diaz will monitor this</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Cravath Swaine &amp; Moore LLP</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E38" t="n">
+        <v>10</v>
+      </c>
+      <c r="F38" t="n">
+        <v>8</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>T-81499</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Temperatures are logged in electronically, but have been placed in incorrect categories. Re-train staff.  - Plan daily temperature logs checks at the end of day. Chef Yang and Sous Chef Ivan will monitor this.</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Cravath Swaine &amp; Moore LLP</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E39" t="n">
+        <v>10</v>
+      </c>
+      <c r="F39" t="n">
+        <v>8</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>T-81507</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>1308--Hot and cold water is available, at proper temperatures where required, and is under adequate pressure.</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Client was made aware about the issue. They will contact the Cravath facilities team for repair. The team has placed a sign by the hand wash sink to state it is "Out of Order</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>As advised by client, they will contact and follow up with the Cravath Facility team. Sign was placed by the hand wash sink that reads "Out of Order</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Cravath Swaine &amp; Moore LLP</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>1060</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E23" t="n">
-        <v>10</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="D40" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E40" t="n">
+        <v>10</v>
+      </c>
+      <c r="F40" t="n">
         <v>8</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>T-81503</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1303--Plumbing is maintained in good repair.</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>As advised by client, they will follow up with the Cravath Facility Team for repairs that need to take place.</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Peter Soguero</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Cravath Swaine &amp; Moore LLP</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1060</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E41" t="n">
+        <v>10</v>
+      </c>
+      <c r="F41" t="n">
+        <v>8</v>
+      </c>
+      <c r="G41" t="inlineStr">
         <is>
           <t>T-81501</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr">
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>203--Eating, drinking, and use of tobacco/gum is restricted to designated areas. Proper tasting procedures are followed.</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>Lissa Herrera, Retail Manager, spoke with the team downstairs and reviewed the correct procedure for maintaining personal drinks. Personal designated area for drinks was provided to them, away from the production area.</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10</v>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>T-81509</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>We spoke with the client regarding the equipment failure. They will contact and follow up with the Cravath facility team.</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E25" t="n">
-        <v>10</v>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>T-81500</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Re-train staff responsible for those stations - Plan daily temperature logs checks at the end of day. Chef Yang, Sous Chef Ivan, Dave Williams, and David Diaz will monitor this</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E26" t="n">
-        <v>10</v>
-      </c>
-      <c r="F26" t="n">
-        <v>8</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>T-81508</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="b">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>1306-- Floors, walls, ceilings, and attached equipment are maintained in good condition and clean.</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>We spoke with the client regarding the facility issue. They will contact and follow up with the Cravath facility team.</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E27" t="n">
-        <v>10</v>
-      </c>
-      <c r="F27" t="n">
-        <v>8</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>T-81499</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Temperatures are logged in electronically, but have been placed in incorrect categories. Re-train staff.  - Plan daily temperature logs checks at the end of day. Chef Yang and Sous Chef Ivan will monitor this.</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E28" t="n">
-        <v>10</v>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>T-81505</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>FLIK 6 - Paper Logs: Cooling TCS foods are monitored/recorded</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Chef Yang and Sous Chef Ivan will re-train staff and plan daily temperature log checks at the end of day.</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E29" t="n">
-        <v>10</v>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>T-81503</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>1303--Plumbing is maintained in good repair.</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>As advised by client, they will follow up with the Cravath Facility Team for repairs that need to take place.</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Cravath Swaine &amp; Moore LLP</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>1060</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E30" t="n">
-        <v>10</v>
-      </c>
-      <c r="F30" t="n">
-        <v>8</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>T-81507</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>1308--Hot and cold water is available, at proper temperatures where required, and is under adequate pressure.</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>As advised by client, they will contact and follow up with the Cravath Facility team. Sign was placed by the hand wash sink that reads "Out of Order</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
+      <c r="L41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2241,7 +2769,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>NO--Soiled food contact surfaces observed: Interior of ice machine/ice bins and/or ice dispenser chute (CRITICAL)</t>
+          <t>NO--Soiled food contact surfaces observed: Other--Note in comments below (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2810,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>NO--Soiled food contact surfaces observed: Other--Note in comments below (CRITICAL)</t>
+          <t>NO--Soiled food contact surfaces observed: Interior of ice machine/ice bins and/or ice dispenser chute (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -2528,7 +3056,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>NO--Soiled food contact surfaces observed: Other--Note in comments below (CRITICAL)</t>
+          <t>NO--Soiled food contact surfaces observed: Food storage or display containers (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -2569,7 +3097,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>NO--Soiled food contact surfaces observed: Food storage or display containers (CRITICAL)</t>
+          <t>NO--Soiled food contact surfaces observed: Other--Note in comments below (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -2692,7 +3220,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>NO--Heat source not close enough to food item(s) - Equipment not properly operated or used (CRITICAL)</t>
+          <t>NO--Hot food left out at room temperature - Food is not controlled using temperature or time (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -2733,7 +3261,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>NO--Hot food left out at room temperature - Food is not controlled using temperature or time (CRITICAL)</t>
+          <t>NO--Heat source not close enough to food item(s) - Equipment not properly operated or used (CRITICAL)</t>
         </is>
       </c>
     </row>
@@ -2830,7 +3358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2898,12 +3426,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>52282</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Cafe 45 Glover</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -2917,7 +3445,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>T-82302</t>
+          <t>T-82281</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -2926,7 +3454,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
+          <t>806--All refrigerators, freezers, and mechanical hot boxes have accurate thermometers that are easily visible.</t>
         </is>
       </c>
     </row>
@@ -2938,12 +3466,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>52282</t>
+          <t>19764</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cafe 45 Glover</t>
+          <t>Dechert LLP</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -2953,11 +3481,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>T-82281</t>
+          <t>T-82221</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -2966,7 +3494,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>806--All refrigerators, freezers, and mechanical hot boxes have accurate thermometers that are easily visible.</t>
+          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
         </is>
       </c>
     </row>
@@ -2978,12 +3506,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>19764</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Dechert LLP</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2993,11 +3521,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>T-82299</t>
+          <t>T-82219</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -3018,12 +3546,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>19764</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Dechert LLP</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3033,11 +3561,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>T-82300</t>
+          <t>T-82217</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -3046,7 +3574,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>601--Sanitization: Proper temperatures met for high temperature sanitizing, and proper concentration for chemical sanitizing. Wiping cloth solution at proper concentration.</t>
+          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
         </is>
       </c>
     </row>
@@ -3058,12 +3586,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>19764</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Dechert LLP</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -3073,11 +3601,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>T-82301</t>
+          <t>T-82216</t>
         </is>
       </c>
       <c r="H6" t="inlineStr"/>
@@ -3086,7 +3614,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>809--TCS foods are held cold at 41F or below - Mechanical Equipment/Facilities Related.</t>
+          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
         </is>
       </c>
     </row>
@@ -3098,12 +3626,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>19764</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Dechert LLP</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -3113,11 +3641,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>T-82307</t>
+          <t>T-82218</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -3126,7 +3654,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1005--Non-food contact surfaces are properly designed and constructed, and in good repair.</t>
+          <t>FLIK 9-TCS food items in original packaging are marked with date received.</t>
         </is>
       </c>
     </row>
@@ -3138,12 +3666,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>25523</t>
+          <t>19764</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Avenues - The World School</t>
+          <t>Dechert LLP</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -3153,11 +3681,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>T-82306</t>
+          <t>T-82220</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
@@ -3166,447 +3694,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>504--There is no potential for cross contamination between raw animal foods and ready to eat food. Proper hierarchy is followed.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>25523</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Avenues - The World School</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E9" t="n">
-        <v>10</v>
-      </c>
-      <c r="F9" t="n">
-        <v>31</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>T-82305</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>806--All refrigerators, freezers, and mechanical hot boxes have accurate thermometers that are easily visible.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>25523</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Avenues - The World School</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E10" t="n">
-        <v>10</v>
-      </c>
-      <c r="F10" t="n">
-        <v>31</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>T-82298</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>807--TCS foods are held at 135F or above (or 140F or above in MA, MN, NV, NY, SD).</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>25523</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Avenues - The World School</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E11" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" t="n">
-        <v>31</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>T-82304</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FLIK 3B - HACCP thermometer in place: Food Production </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>25523</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Avenues - The World School</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E12" t="n">
-        <v>10</v>
-      </c>
-      <c r="F12" t="n">
-        <v>31</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>T-82308</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>25523</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Avenues - The World School</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" t="n">
-        <v>31</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>T-82303</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1303--Plumbing is maintained in good repair.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>19764</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Dechert LLP</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E14" t="n">
-        <v>10</v>
-      </c>
-      <c r="F14" t="n">
-        <v>29</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>T-82216</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>808--TCS foods are held cold at 41F or below - Behavior/Process Related.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>19764</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Dechert LLP</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F15" t="n">
-        <v>29</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>T-82218</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>FLIK 9-TCS food items in original packaging are marked with date received.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>19764</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Dechert LLP</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E16" t="n">
-        <v>10</v>
-      </c>
-      <c r="F16" t="n">
-        <v>29</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>T-82219</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>19764</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Dechert LLP</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E17" t="n">
-        <v>10</v>
-      </c>
-      <c r="F17" t="n">
-        <v>29</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>T-82220</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
           <t>1005--Non-food contact surfaces are properly designed and constructed, and in good repair.</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>19764</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Dechert LLP</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F18" t="n">
-        <v>29</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>T-82217</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>600--Food contact surfaces are properly cleaned and sanitized at regular intervals and are clean to sight and touch.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Peter Soguero</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>19764</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Dechert LLP</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10</v>
-      </c>
-      <c r="F19" t="n">
-        <v>29</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>T-82221</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>FLIK 3C - HACCP thermometer in place: Service/Line temperatures</t>
         </is>
       </c>
     </row>
